--- a/Documentos/Desenvolvimento Ágil/custo_final.xlsx
+++ b/Documentos/Desenvolvimento Ágil/custo_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro 10\Desktop\entrega final\sprints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro 10\Documents\GitHub\gpp_mds\Documentos\Desenvolvimento Ágil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1655,33 +1655,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1709,23 +1685,23 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1739,8 +1715,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1748,10 +1745,61 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,66 +1811,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2055,7 +2055,7 @@
                   <c:v>225.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>381.68</c:v>
+                  <c:v>271.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,8 +2071,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2048757600"/>
-        <c:axId val="-1544252272"/>
+        <c:axId val="87224016"/>
+        <c:axId val="87217488"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2129,7 +2129,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Gráfico!$A$5</c15:sqref>
@@ -2157,7 +2157,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Gráfico!$B$5:$D$5</c15:sqref>
@@ -2177,7 +2177,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2048757600"/>
+        <c:axId val="87224016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2250,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1544252272"/>
+        <c:crossAx val="87217488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2258,7 +2258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1544252272"/>
+        <c:axId val="87217488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2310,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2048757600"/>
+        <c:crossAx val="87224016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3318,12 +3318,12 @@
         <v>239</v>
       </c>
       <c r="E2" s="43"/>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3410,10 +3410,10 @@
         <v>6.1356250000000001</v>
       </c>
       <c r="E6" s="43"/>
-      <c r="G6" s="116" t="s">
+      <c r="G6" s="110" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="117"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="84">
         <v>0.08</v>
       </c>
@@ -3460,10 +3460,10 @@
       <c r="F9" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="113" t="s">
+      <c r="G9" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="115"/>
+      <c r="H9" s="109"/>
       <c r="I9" s="86" t="s">
         <v>239</v>
       </c>
@@ -3482,10 +3482,10 @@
       <c r="F10" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="G10" s="118">
+      <c r="G10" s="112">
         <v>59.9</v>
       </c>
-      <c r="H10" s="119"/>
+      <c r="H10" s="113"/>
       <c r="I10" s="12">
         <v>0.08</v>
       </c>
@@ -3508,10 +3508,10 @@
       <c r="C13" s="87">
         <v>0</v>
       </c>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="115"/>
+      <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="69" t="s">
@@ -3595,12 +3595,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="43"/>
-      <c r="F19" s="111" t="s">
+      <c r="F19" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
       <c r="J19" s="94"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3612,40 +3612,40 @@
         <v>199</v>
       </c>
       <c r="D20" s="98"/>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
       <c r="J20" s="94"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D21" s="95"/>
-      <c r="F21" s="112" t="s">
+      <c r="F21" s="106" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
       <c r="J21" s="94"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D22" s="95"/>
-      <c r="F22" s="112" t="s">
+      <c r="F22" s="106" t="s">
         <v>261</v>
       </c>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
       <c r="J22" s="58"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="109"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="81" t="s">
@@ -3720,19 +3720,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
       <c r="J2" s="49" t="s">
         <v>196</v>
       </c>
@@ -4675,25 +4675,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="128" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="129"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="128" t="s">
+      <c r="G1" s="123"/>
+      <c r="H1" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="129"/>
+      <c r="I1" s="123"/>
       <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4711,25 +4711,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="126" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="127"/>
+      <c r="D2" s="121"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="126" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="127"/>
+      <c r="I2" s="121"/>
       <c r="J2" s="4" t="s">
         <v>80</v>
       </c>
@@ -4753,21 +4753,21 @@
         <v>81</v>
       </c>
       <c r="B3" s="125"/>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="121"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="126" t="s">
+      <c r="G3" s="121"/>
+      <c r="H3" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="127"/>
+      <c r="I3" s="121"/>
       <c r="J3" s="4" t="s">
         <v>83</v>
       </c>
@@ -4791,21 +4791,21 @@
         <v>81</v>
       </c>
       <c r="B4" s="125"/>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="127"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="126" t="s">
+      <c r="G4" s="121"/>
+      <c r="H4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="127"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="4" t="s">
         <v>85</v>
       </c>
@@ -4829,21 +4829,21 @@
         <v>81</v>
       </c>
       <c r="B5" s="125"/>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="127"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="126" t="s">
+      <c r="G5" s="121"/>
+      <c r="H5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="127"/>
+      <c r="I5" s="121"/>
       <c r="J5" s="4" t="s">
         <v>87</v>
       </c>
@@ -4867,21 +4867,21 @@
         <v>81</v>
       </c>
       <c r="B6" s="125"/>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="127"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="126" t="s">
+      <c r="G6" s="121"/>
+      <c r="H6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="127"/>
+      <c r="I6" s="121"/>
       <c r="J6" s="4" t="s">
         <v>89</v>
       </c>
@@ -4905,21 +4905,21 @@
         <v>81</v>
       </c>
       <c r="B7" s="125"/>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="127"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="127"/>
-      <c r="H7" s="126" t="s">
+      <c r="G7" s="121"/>
+      <c r="H7" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="127"/>
+      <c r="I7" s="121"/>
       <c r="J7" s="4" t="s">
         <v>91</v>
       </c>
@@ -4943,21 +4943,21 @@
         <v>81</v>
       </c>
       <c r="B8" s="125"/>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="127"/>
+      <c r="D8" s="121"/>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="126" t="s">
+      <c r="G8" s="121"/>
+      <c r="H8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="127"/>
+      <c r="I8" s="121"/>
       <c r="J8" s="4" t="s">
         <v>93</v>
       </c>
@@ -4981,21 +4981,21 @@
         <v>81</v>
       </c>
       <c r="B9" s="125"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="127"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="126" t="s">
+      <c r="G9" s="121"/>
+      <c r="H9" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="127"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="4" t="s">
         <v>95</v>
       </c>
@@ -5019,21 +5019,21 @@
         <v>81</v>
       </c>
       <c r="B10" s="125"/>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="126" t="s">
+      <c r="G10" s="121"/>
+      <c r="H10" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="127"/>
+      <c r="I10" s="121"/>
       <c r="J10" s="4" t="s">
         <v>97</v>
       </c>
@@ -5057,21 +5057,21 @@
         <v>98</v>
       </c>
       <c r="B11" s="125"/>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="127"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="127"/>
-      <c r="H11" s="126" t="s">
+      <c r="G11" s="121"/>
+      <c r="H11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="121"/>
       <c r="J11" s="4" t="s">
         <v>100</v>
       </c>
@@ -5095,21 +5095,21 @@
         <v>98</v>
       </c>
       <c r="B12" s="125"/>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="127"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="F12" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="126" t="s">
+      <c r="G12" s="121"/>
+      <c r="H12" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="127"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="4" t="s">
         <v>102</v>
       </c>
@@ -5133,21 +5133,21 @@
         <v>103</v>
       </c>
       <c r="B13" s="125"/>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="127"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="127"/>
-      <c r="H13" s="126" t="s">
+      <c r="G13" s="121"/>
+      <c r="H13" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="127"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="4" t="s">
         <v>104</v>
       </c>
@@ -5171,21 +5171,21 @@
         <v>103</v>
       </c>
       <c r="B14" s="125"/>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="126" t="s">
+      <c r="F14" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126" t="s">
+      <c r="G14" s="121"/>
+      <c r="H14" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="127"/>
+      <c r="I14" s="121"/>
       <c r="J14" s="4" t="s">
         <v>105</v>
       </c>
@@ -5209,21 +5209,21 @@
         <v>106</v>
       </c>
       <c r="B15" s="125"/>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="127"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="126" t="s">
+      <c r="F15" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="126" t="s">
+      <c r="G15" s="121"/>
+      <c r="H15" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="127"/>
+      <c r="I15" s="121"/>
       <c r="J15" s="4" t="s">
         <v>108</v>
       </c>
@@ -5247,21 +5247,21 @@
         <v>106</v>
       </c>
       <c r="B16" s="125"/>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="127"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="126" t="s">
+      <c r="F16" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="126" t="s">
+      <c r="G16" s="121"/>
+      <c r="H16" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="127"/>
+      <c r="I16" s="121"/>
       <c r="J16" s="4" t="s">
         <v>109</v>
       </c>
@@ -5281,18 +5281,18 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
       <c r="K17" s="36">
         <f>SUM(K2:K16)</f>
         <v>13.25</v>
@@ -5313,40 +5313,40 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -5378,6 +5378,70 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -5386,70 +5450,6 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5471,25 +5471,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="128" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="129"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="128" t="s">
+      <c r="G1" s="123"/>
+      <c r="H1" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="129"/>
+      <c r="I1" s="123"/>
       <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
@@ -5509,25 +5509,25 @@
       <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="126" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="127"/>
+      <c r="D2" s="121"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="126" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="127"/>
+      <c r="I2" s="121"/>
       <c r="J2" s="4"/>
       <c r="K2">
         <v>1</v>
@@ -5549,21 +5549,21 @@
         <v>6</v>
       </c>
       <c r="B3" s="125"/>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="121"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="126" t="s">
+      <c r="G3" s="121"/>
+      <c r="H3" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="127"/>
+      <c r="I3" s="121"/>
       <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5587,21 +5587,21 @@
         <v>6</v>
       </c>
       <c r="B4" s="125"/>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="127"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="126" t="s">
+      <c r="G4" s="121"/>
+      <c r="H4" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="127"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
@@ -5625,21 +5625,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="125"/>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="127"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="126" t="s">
+      <c r="G5" s="121"/>
+      <c r="H5" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="127"/>
+      <c r="I5" s="121"/>
       <c r="J5" s="4" t="s">
         <v>13</v>
       </c>
@@ -5663,21 +5663,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="125"/>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="127"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="126" t="s">
+      <c r="G6" s="121"/>
+      <c r="H6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="127"/>
+      <c r="I6" s="121"/>
       <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
@@ -5701,21 +5701,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="125"/>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="127"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="127"/>
-      <c r="H7" s="126" t="s">
+      <c r="G7" s="121"/>
+      <c r="H7" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="127"/>
+      <c r="I7" s="121"/>
       <c r="J7" s="4" t="s">
         <v>70</v>
       </c>
@@ -5739,21 +5739,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="125"/>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="127"/>
+      <c r="D8" s="121"/>
       <c r="E8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="126" t="s">
+      <c r="G8" s="121"/>
+      <c r="H8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="127"/>
+      <c r="I8" s="121"/>
       <c r="J8" s="4"/>
       <c r="K8">
         <v>0.5</v>
@@ -5775,21 +5775,21 @@
         <v>6</v>
       </c>
       <c r="B9" s="125"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="127"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="126" t="s">
+      <c r="G9" s="121"/>
+      <c r="H9" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="127"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="4"/>
       <c r="K9">
         <v>0.5</v>
@@ -5811,21 +5811,21 @@
         <v>6</v>
       </c>
       <c r="B10" s="125"/>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="126" t="s">
+      <c r="G10" s="121"/>
+      <c r="H10" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="127"/>
+      <c r="I10" s="121"/>
       <c r="J10" s="4"/>
       <c r="K10">
         <v>1</v>
@@ -5847,21 +5847,21 @@
         <v>6</v>
       </c>
       <c r="B11" s="125"/>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="127"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="127"/>
-      <c r="H11" s="126" t="s">
+      <c r="G11" s="121"/>
+      <c r="H11" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="121"/>
       <c r="J11" s="4"/>
       <c r="K11">
         <v>1</v>
@@ -5883,21 +5883,21 @@
         <v>6</v>
       </c>
       <c r="B12" s="125"/>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="127"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="F12" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="126" t="s">
+      <c r="G12" s="121"/>
+      <c r="H12" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="127"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="4"/>
       <c r="K12">
         <v>2</v>
@@ -5919,21 +5919,21 @@
         <v>6</v>
       </c>
       <c r="B13" s="125"/>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="127"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="127"/>
-      <c r="H13" s="126" t="s">
+      <c r="G13" s="121"/>
+      <c r="H13" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="127"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="4"/>
       <c r="K13">
         <v>0.5</v>
@@ -5955,21 +5955,21 @@
         <v>6</v>
       </c>
       <c r="B14" s="125"/>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="126" t="s">
+      <c r="F14" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="126" t="s">
+      <c r="G14" s="121"/>
+      <c r="H14" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="127"/>
+      <c r="I14" s="121"/>
       <c r="J14" s="4"/>
       <c r="K14">
         <v>0.5</v>
@@ -5987,25 +5987,25 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="126" t="s">
+      <c r="B15" s="131"/>
+      <c r="C15" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="127"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="126" t="s">
+      <c r="F15" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="126" t="s">
+      <c r="G15" s="121"/>
+      <c r="H15" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="127"/>
+      <c r="I15" s="121"/>
       <c r="J15" s="4" t="s">
         <v>28</v>
       </c>
@@ -6025,25 +6025,25 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="126" t="s">
+      <c r="B16" s="131"/>
+      <c r="C16" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="127"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="126" t="s">
+      <c r="F16" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="126" t="s">
+      <c r="G16" s="121"/>
+      <c r="H16" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="127"/>
+      <c r="I16" s="121"/>
       <c r="J16" s="4" t="s">
         <v>28</v>
       </c>
@@ -6063,25 +6063,25 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="126" t="s">
+      <c r="B17" s="131"/>
+      <c r="C17" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="127"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="126" t="s">
+      <c r="F17" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="126" t="s">
+      <c r="G17" s="121"/>
+      <c r="H17" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="127"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="4" t="s">
         <v>28</v>
       </c>
@@ -6101,25 +6101,25 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="126" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="127"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="126" t="s">
+      <c r="F18" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="127"/>
-      <c r="H18" s="126" t="s">
+      <c r="G18" s="121"/>
+      <c r="H18" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="127"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="4" t="s">
         <v>28</v>
       </c>
@@ -6139,25 +6139,25 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="126" t="s">
+      <c r="B19" s="133"/>
+      <c r="C19" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="127"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="126" t="s">
+      <c r="G19" s="121"/>
+      <c r="H19" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="127"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="4" t="s">
         <v>71</v>
       </c>
@@ -6177,25 +6177,25 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="126" t="s">
+      <c r="B20" s="133"/>
+      <c r="C20" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="127"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="126" t="s">
+      <c r="F20" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="126" t="s">
+      <c r="G20" s="121"/>
+      <c r="H20" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="127"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="4" t="s">
         <v>40</v>
       </c>
@@ -6215,25 +6215,25 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="126" t="s">
+      <c r="B21" s="133"/>
+      <c r="C21" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="127"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="126" t="s">
+      <c r="F21" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="126" t="s">
+      <c r="G21" s="121"/>
+      <c r="H21" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="127"/>
+      <c r="I21" s="121"/>
       <c r="J21" s="4" t="s">
         <v>42</v>
       </c>
@@ -6253,25 +6253,25 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="126" t="s">
+      <c r="B22" s="133"/>
+      <c r="C22" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="126" t="s">
+      <c r="F22" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="127"/>
-      <c r="H22" s="126" t="s">
+      <c r="G22" s="121"/>
+      <c r="H22" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="127"/>
+      <c r="I22" s="121"/>
       <c r="J22" s="4" t="s">
         <v>44</v>
       </c>
@@ -6291,25 +6291,25 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="126" t="s">
+      <c r="B23" s="133"/>
+      <c r="C23" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="127"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="126" t="s">
+      <c r="F23" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="126" t="s">
+      <c r="G23" s="121"/>
+      <c r="H23" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="127"/>
+      <c r="I23" s="121"/>
       <c r="J23" s="4" t="s">
         <v>11</v>
       </c>
@@ -6329,25 +6329,25 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="126" t="s">
+      <c r="B24" s="133"/>
+      <c r="C24" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="126" t="s">
+      <c r="F24" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="126" t="s">
+      <c r="G24" s="121"/>
+      <c r="H24" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="127"/>
+      <c r="I24" s="121"/>
       <c r="J24" s="4" t="s">
         <v>72</v>
       </c>
@@ -6367,25 +6367,25 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="131" t="s">
+      <c r="A25" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="126" t="s">
+      <c r="B25" s="133"/>
+      <c r="C25" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="126" t="s">
+      <c r="F25" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="127"/>
-      <c r="H25" s="126" t="s">
+      <c r="G25" s="121"/>
+      <c r="H25" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="127"/>
+      <c r="I25" s="121"/>
       <c r="J25" s="4" t="s">
         <v>48</v>
       </c>
@@ -6405,25 +6405,25 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="126" t="s">
+      <c r="B26" s="133"/>
+      <c r="C26" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="127"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="126" t="s">
+      <c r="F26" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="127"/>
-      <c r="H26" s="126" t="s">
+      <c r="G26" s="121"/>
+      <c r="H26" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="127"/>
+      <c r="I26" s="121"/>
       <c r="J26" s="4" t="s">
         <v>49</v>
       </c>
@@ -6443,25 +6443,25 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="126" t="s">
+      <c r="B27" s="133"/>
+      <c r="C27" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="127"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="126" t="s">
+      <c r="F27" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="127"/>
-      <c r="H27" s="126" t="s">
+      <c r="G27" s="121"/>
+      <c r="H27" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="127"/>
+      <c r="I27" s="121"/>
       <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
@@ -6481,25 +6481,25 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="126" t="s">
+      <c r="B28" s="133"/>
+      <c r="C28" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="127"/>
+      <c r="D28" s="121"/>
       <c r="E28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="126" t="s">
+      <c r="F28" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="127"/>
-      <c r="H28" s="126" t="s">
+      <c r="G28" s="121"/>
+      <c r="H28" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="127"/>
+      <c r="I28" s="121"/>
       <c r="J28" s="4" t="s">
         <v>51</v>
       </c>
@@ -6519,25 +6519,25 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="126" t="s">
+      <c r="B29" s="133"/>
+      <c r="C29" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="127"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="126" t="s">
+      <c r="F29" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="127"/>
-      <c r="H29" s="126" t="s">
+      <c r="G29" s="121"/>
+      <c r="H29" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="127"/>
+      <c r="I29" s="121"/>
       <c r="J29" s="4" t="s">
         <v>52</v>
       </c>
@@ -6557,25 +6557,25 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="126" t="s">
+      <c r="B30" s="133"/>
+      <c r="C30" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="127"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="126" t="s">
+      <c r="F30" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="127"/>
-      <c r="H30" s="126" t="s">
+      <c r="G30" s="121"/>
+      <c r="H30" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="127"/>
+      <c r="I30" s="121"/>
       <c r="J30" s="4" t="s">
         <v>73</v>
       </c>
@@ -6595,25 +6595,25 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="126" t="s">
+      <c r="B31" s="133"/>
+      <c r="C31" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="127"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="126" t="s">
+      <c r="F31" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="127"/>
-      <c r="H31" s="126" t="s">
+      <c r="G31" s="121"/>
+      <c r="H31" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="127"/>
+      <c r="I31" s="121"/>
       <c r="J31" s="4" t="s">
         <v>11</v>
       </c>
@@ -6637,21 +6637,21 @@
         <v>53</v>
       </c>
       <c r="B32" s="125"/>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="127"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="126" t="s">
+      <c r="F32" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="127"/>
-      <c r="H32" s="126" t="s">
+      <c r="G32" s="121"/>
+      <c r="H32" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="127"/>
+      <c r="I32" s="121"/>
       <c r="J32" s="4" t="s">
         <v>55</v>
       </c>
@@ -6675,21 +6675,21 @@
         <v>53</v>
       </c>
       <c r="B33" s="125"/>
-      <c r="C33" s="126" t="s">
+      <c r="C33" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="127"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="126" t="s">
+      <c r="F33" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="127"/>
-      <c r="H33" s="126" t="s">
+      <c r="G33" s="121"/>
+      <c r="H33" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="127"/>
+      <c r="I33" s="121"/>
       <c r="J33" s="4" t="s">
         <v>57</v>
       </c>
@@ -6713,21 +6713,21 @@
         <v>53</v>
       </c>
       <c r="B34" s="125"/>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="127"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="126" t="s">
+      <c r="F34" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="127"/>
-      <c r="H34" s="126" t="s">
+      <c r="G34" s="121"/>
+      <c r="H34" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="127"/>
+      <c r="I34" s="121"/>
       <c r="J34" s="4" t="s">
         <v>74</v>
       </c>
@@ -6751,21 +6751,21 @@
         <v>53</v>
       </c>
       <c r="B35" s="125"/>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="127"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="126" t="s">
+      <c r="F35" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="127"/>
-      <c r="H35" s="126" t="s">
+      <c r="G35" s="121"/>
+      <c r="H35" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="127"/>
+      <c r="I35" s="121"/>
       <c r="J35" s="4" t="s">
         <v>75</v>
       </c>
@@ -6789,21 +6789,21 @@
         <v>60</v>
       </c>
       <c r="B36" s="125"/>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="127"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="126" t="s">
+      <c r="F36" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="127"/>
-      <c r="H36" s="126" t="s">
+      <c r="G36" s="121"/>
+      <c r="H36" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="127"/>
+      <c r="I36" s="121"/>
       <c r="J36" s="4"/>
       <c r="K36">
         <v>2</v>
@@ -6825,21 +6825,21 @@
         <v>60</v>
       </c>
       <c r="B37" s="125"/>
-      <c r="C37" s="126" t="s">
+      <c r="C37" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="127"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="126" t="s">
+      <c r="F37" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="127"/>
-      <c r="H37" s="126" t="s">
+      <c r="G37" s="121"/>
+      <c r="H37" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="127"/>
+      <c r="I37" s="121"/>
       <c r="J37" s="4"/>
       <c r="K37">
         <v>0.5</v>
@@ -6861,21 +6861,21 @@
         <v>60</v>
       </c>
       <c r="B38" s="125"/>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="127"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="126" t="s">
+      <c r="F38" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="127"/>
-      <c r="H38" s="126" t="s">
+      <c r="G38" s="121"/>
+      <c r="H38" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="127"/>
+      <c r="I38" s="121"/>
       <c r="J38" s="4"/>
       <c r="K38">
         <v>0.5</v>
@@ -6893,18 +6893,18 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="B39" s="120"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="121"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="127"/>
       <c r="K39" s="15">
         <f>SUM(K2:K38)</f>
         <v>27</v>
@@ -6925,22 +6925,22 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -6948,11 +6948,11 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="123"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -6960,11 +6960,11 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -6972,11 +6972,11 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="123"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -6984,11 +6984,11 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="123"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -6996,8 +6996,8 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="129"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -7007,12 +7007,12 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="130"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -7020,11 +7020,11 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -7032,11 +7032,11 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -7044,11 +7044,11 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -7068,11 +7068,11 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -7080,11 +7080,11 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -7092,11 +7092,11 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="123"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -7104,11 +7104,11 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="123"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -7116,11 +7116,11 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -7128,11 +7128,11 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="123"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -7140,8 +7140,8 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="123"/>
-      <c r="C58" s="123"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -7151,12 +7151,12 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="130"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
+      <c r="A59" s="134"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -7164,11 +7164,11 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="123"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="123"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="129"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -7176,11 +7176,11 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="123"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -7188,11 +7188,11 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="123"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="123"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -7212,11 +7212,11 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="123"/>
-      <c r="C64" s="123"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="123"/>
-      <c r="F64" s="123"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -7224,11 +7224,11 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="128"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="128"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -7236,11 +7236,11 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="123"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -7248,11 +7248,11 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="123"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="123"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="129"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -7260,11 +7260,11 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="123"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="123"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -7272,11 +7272,11 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="123"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="123"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -7284,8 +7284,8 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="123"/>
-      <c r="C70" s="123"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="129"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -7295,12 +7295,12 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="130"/>
-      <c r="B71" s="130"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
+      <c r="A71" s="134"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="129"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -7308,11 +7308,11 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="123"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="123"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -7320,11 +7320,11 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="129"/>
+      <c r="F73" s="129"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -7332,11 +7332,11 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="123"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="129"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -7344,11 +7344,11 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="123"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="123"/>
-      <c r="F75" s="123"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -7356,11 +7356,11 @@
     </row>
     <row r="76" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="122"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="122"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
+      <c r="D76" s="128"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="128"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
@@ -7372,6 +7372,210 @@
     <row r="80" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
@@ -7384,210 +7588,6 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7616,62 +7616,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123"/>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="A1" s="129"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
     </row>
     <row r="2" spans="1:25" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="128" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="156"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="128" t="s">
+      <c r="I2" s="135"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="128" t="s">
+      <c r="L2" s="123"/>
+      <c r="M2" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="129"/>
-      <c r="O2" s="128" t="s">
+      <c r="N2" s="123"/>
+      <c r="O2" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="128" t="s">
+      <c r="P2" s="135"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="122" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="129"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="123"/>
       <c r="V2" s="2" t="s">
         <v>76</v>
       </c>
@@ -7686,39 +7686,39 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="126" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="145"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="127"/>
-      <c r="M3" s="126">
+      <c r="I3" s="136"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="121"/>
+      <c r="M3" s="120">
         <v>0</v>
       </c>
-      <c r="N3" s="127"/>
-      <c r="O3" s="126" t="s">
+      <c r="N3" s="121"/>
+      <c r="O3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="138" t="s">
+      <c r="P3" s="136"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="141"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="139"/>
       <c r="V3" s="9">
         <v>1</v>
       </c>
@@ -7735,39 +7735,39 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="126" t="s">
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="127"/>
-      <c r="M4" s="126">
+      <c r="I4" s="136"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="121"/>
+      <c r="M4" s="120">
         <v>0</v>
       </c>
-      <c r="N4" s="127"/>
-      <c r="O4" s="126" t="s">
+      <c r="N4" s="121"/>
+      <c r="O4" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="138" t="s">
+      <c r="P4" s="136"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="141"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="139"/>
       <c r="V4" s="22">
         <v>1</v>
       </c>
@@ -7784,39 +7784,39 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="126" t="s">
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="145"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="127"/>
-      <c r="M5" s="126">
+      <c r="I5" s="136"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="121"/>
+      <c r="M5" s="120">
         <v>0</v>
       </c>
-      <c r="N5" s="127"/>
-      <c r="O5" s="126" t="s">
+      <c r="N5" s="121"/>
+      <c r="O5" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="138" t="s">
+      <c r="P5" s="136"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="141"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="139"/>
       <c r="V5" s="9">
         <v>0.5</v>
       </c>
@@ -7833,39 +7833,39 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="126" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="145"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="127"/>
-      <c r="M6" s="126">
+      <c r="I6" s="136"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="121"/>
+      <c r="M6" s="120">
         <v>0</v>
       </c>
-      <c r="N6" s="127"/>
-      <c r="O6" s="126" t="s">
+      <c r="N6" s="121"/>
+      <c r="O6" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="138" t="s">
+      <c r="P6" s="136"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="141"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="139"/>
       <c r="V6" s="9">
         <v>0.5</v>
       </c>
@@ -7882,39 +7882,39 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="126" t="s">
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="145"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="127"/>
-      <c r="M7" s="126">
+      <c r="I7" s="136"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="121"/>
+      <c r="M7" s="120">
         <v>0</v>
       </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="126" t="s">
+      <c r="N7" s="121"/>
+      <c r="O7" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="138" t="s">
+      <c r="P7" s="136"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="141"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="139"/>
       <c r="V7" s="20">
         <v>0.5</v>
       </c>
@@ -7931,39 +7931,39 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="126" t="s">
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="145"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="127"/>
-      <c r="M8" s="126">
+      <c r="I8" s="136"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="121"/>
+      <c r="M8" s="120">
         <v>0</v>
       </c>
-      <c r="N8" s="127"/>
-      <c r="O8" s="126" t="s">
+      <c r="N8" s="121"/>
+      <c r="O8" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="138" t="s">
+      <c r="P8" s="136"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="S8" s="139"/>
-      <c r="T8" s="139"/>
-      <c r="U8" s="141"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="139"/>
       <c r="V8" s="9">
         <v>0.5</v>
       </c>
@@ -7980,39 +7980,39 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="126" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="145"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="127"/>
-      <c r="M9" s="126">
+      <c r="I9" s="136"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="121"/>
+      <c r="M9" s="120">
         <v>0</v>
       </c>
-      <c r="N9" s="127"/>
-      <c r="O9" s="126" t="s">
+      <c r="N9" s="121"/>
+      <c r="O9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="138" t="s">
+      <c r="P9" s="136"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="141"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="139"/>
       <c r="V9" s="20">
         <v>1</v>
       </c>
@@ -8029,39 +8029,39 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="126" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="145"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="127"/>
-      <c r="M10" s="126">
+      <c r="I10" s="136"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="121"/>
+      <c r="M10" s="120">
         <v>0</v>
       </c>
-      <c r="N10" s="127"/>
-      <c r="O10" s="126" t="s">
+      <c r="N10" s="121"/>
+      <c r="O10" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="138" t="s">
+      <c r="P10" s="136"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="139"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="141"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="139"/>
       <c r="V10" s="20">
         <v>1</v>
       </c>
@@ -8078,39 +8078,39 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="126" t="s">
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="145"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="127"/>
-      <c r="M11" s="126">
+      <c r="I11" s="136"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="121"/>
+      <c r="M11" s="120">
         <v>0</v>
       </c>
-      <c r="N11" s="127"/>
-      <c r="O11" s="126" t="s">
+      <c r="N11" s="121"/>
+      <c r="O11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="138" t="s">
+      <c r="P11" s="136"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="141"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="139"/>
       <c r="V11" s="9">
         <v>1.5</v>
       </c>
@@ -8127,39 +8127,39 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="126" t="s">
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="145"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="127"/>
-      <c r="M12" s="126">
+      <c r="I12" s="136"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="121"/>
+      <c r="M12" s="120">
         <v>0</v>
       </c>
-      <c r="N12" s="127"/>
-      <c r="O12" s="126" t="s">
+      <c r="N12" s="121"/>
+      <c r="O12" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="138" t="s">
+      <c r="P12" s="136"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="141"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="139"/>
       <c r="V12" s="20">
         <v>2</v>
       </c>
@@ -8176,39 +8176,39 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="126" t="s">
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="145"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="127"/>
-      <c r="M13" s="126">
+      <c r="I13" s="136"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="121"/>
+      <c r="M13" s="120">
         <v>0</v>
       </c>
-      <c r="N13" s="127"/>
-      <c r="O13" s="126" t="s">
+      <c r="N13" s="121"/>
+      <c r="O13" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="138" t="s">
+      <c r="P13" s="136"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="141"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="139"/>
       <c r="V13" s="9">
         <v>0.5</v>
       </c>
@@ -8225,39 +8225,39 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="126" t="s">
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="145"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="127"/>
-      <c r="M14" s="126">
+      <c r="I14" s="136"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="121"/>
+      <c r="M14" s="120">
         <v>0</v>
       </c>
-      <c r="N14" s="127"/>
-      <c r="O14" s="126" t="s">
+      <c r="N14" s="121"/>
+      <c r="O14" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="138" t="s">
+      <c r="P14" s="136"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
-      <c r="U14" s="141"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="139"/>
       <c r="V14" s="9">
         <v>0.5</v>
       </c>
@@ -8274,39 +8274,39 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="126" t="s">
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="145"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="127"/>
-      <c r="M15" s="126">
+      <c r="I15" s="136"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="121"/>
+      <c r="M15" s="120">
         <v>0</v>
       </c>
-      <c r="N15" s="127"/>
-      <c r="O15" s="126" t="s">
+      <c r="N15" s="121"/>
+      <c r="O15" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="138" t="s">
+      <c r="P15" s="136"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="141"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="139"/>
       <c r="V15" s="9">
         <v>0.5</v>
       </c>
@@ -8323,39 +8323,39 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="126" t="s">
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="145"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="127"/>
-      <c r="M16" s="126">
+      <c r="I16" s="136"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="121"/>
+      <c r="M16" s="120">
         <v>0</v>
       </c>
-      <c r="N16" s="127"/>
-      <c r="O16" s="126" t="s">
+      <c r="N16" s="121"/>
+      <c r="O16" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="138" t="s">
+      <c r="P16" s="136"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="141"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="139"/>
       <c r="V16" s="20">
         <v>1</v>
       </c>
@@ -8372,39 +8372,39 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="126" t="s">
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="145"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="127"/>
-      <c r="M17" s="126">
+      <c r="I17" s="136"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="121"/>
+      <c r="M17" s="120">
         <v>0</v>
       </c>
-      <c r="N17" s="127"/>
-      <c r="O17" s="126" t="s">
+      <c r="N17" s="121"/>
+      <c r="O17" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="138" t="s">
+      <c r="P17" s="136"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="141"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="139"/>
       <c r="V17" s="9">
         <v>0.5</v>
       </c>
@@ -8421,39 +8421,39 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="126" t="s">
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="145"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="127"/>
-      <c r="M18" s="126">
+      <c r="I18" s="136"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="121"/>
+      <c r="M18" s="120">
         <v>0</v>
       </c>
-      <c r="N18" s="127"/>
-      <c r="O18" s="126" t="s">
+      <c r="N18" s="121"/>
+      <c r="O18" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="138" t="s">
+      <c r="P18" s="136"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="141"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="139"/>
       <c r="V18" s="9">
         <v>0.5</v>
       </c>
@@ -8470,39 +8470,39 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="126" t="s">
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="145"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="127"/>
-      <c r="M19" s="126">
+      <c r="I19" s="136"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="121"/>
+      <c r="M19" s="120">
         <v>0</v>
       </c>
-      <c r="N19" s="127"/>
-      <c r="O19" s="126" t="s">
+      <c r="N19" s="121"/>
+      <c r="O19" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="138" t="s">
+      <c r="P19" s="136"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="141"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="139"/>
       <c r="V19" s="9">
         <v>0.5</v>
       </c>
@@ -8519,39 +8519,39 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="126" t="s">
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="145"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="127"/>
-      <c r="M20" s="126">
+      <c r="I20" s="136"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="121"/>
+      <c r="M20" s="120">
         <v>0</v>
       </c>
-      <c r="N20" s="127"/>
-      <c r="O20" s="126" t="s">
+      <c r="N20" s="121"/>
+      <c r="O20" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="138" t="s">
+      <c r="P20" s="136"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="141"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="139"/>
       <c r="V20" s="9">
         <v>0.5</v>
       </c>
@@ -8568,39 +8568,39 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="126" t="s">
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="145"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="127"/>
-      <c r="M21" s="126">
+      <c r="I21" s="136"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="121"/>
+      <c r="M21" s="120">
         <v>0</v>
       </c>
-      <c r="N21" s="127"/>
-      <c r="O21" s="126" t="s">
+      <c r="N21" s="121"/>
+      <c r="O21" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="138" t="s">
+      <c r="P21" s="136"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="141"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="139"/>
       <c r="V21" s="20">
         <v>1</v>
       </c>
@@ -8617,39 +8617,39 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="150" t="s">
+      <c r="A22" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="126" t="s">
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="145"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="127"/>
-      <c r="M22" s="126">
+      <c r="I22" s="136"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="121"/>
+      <c r="M22" s="120">
         <v>0</v>
       </c>
-      <c r="N22" s="127"/>
-      <c r="O22" s="126" t="s">
+      <c r="N22" s="121"/>
+      <c r="O22" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="138" t="s">
+      <c r="P22" s="136"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="S22" s="139"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="141"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="139"/>
       <c r="V22" s="9">
         <v>0.5</v>
       </c>
@@ -8666,39 +8666,39 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="126" t="s">
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="I23" s="145"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="127"/>
-      <c r="M23" s="126">
+      <c r="I23" s="136"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="121"/>
+      <c r="M23" s="120">
         <v>0</v>
       </c>
-      <c r="N23" s="127"/>
-      <c r="O23" s="126" t="s">
+      <c r="N23" s="121"/>
+      <c r="O23" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="138" t="s">
+      <c r="P23" s="136"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="S23" s="139"/>
-      <c r="T23" s="139"/>
-      <c r="U23" s="141"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="139"/>
       <c r="V23" s="20">
         <v>1</v>
       </c>
@@ -8715,39 +8715,39 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="126" t="s">
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="I24" s="145"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="127"/>
-      <c r="M24" s="126">
+      <c r="I24" s="136"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="121"/>
+      <c r="M24" s="120">
         <v>0</v>
       </c>
-      <c r="N24" s="127"/>
-      <c r="O24" s="126" t="s">
+      <c r="N24" s="121"/>
+      <c r="O24" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="138" t="s">
+      <c r="P24" s="136"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="141"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="139"/>
       <c r="V24" s="20">
         <v>1</v>
       </c>
@@ -8764,39 +8764,39 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="126" t="s">
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="145"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="127"/>
-      <c r="M25" s="126">
+      <c r="I25" s="136"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="121"/>
+      <c r="M25" s="120">
         <v>0</v>
       </c>
-      <c r="N25" s="127"/>
-      <c r="O25" s="126" t="s">
+      <c r="N25" s="121"/>
+      <c r="O25" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="138" t="s">
+      <c r="P25" s="136"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="141"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="139"/>
       <c r="V25" s="9">
         <v>0.5</v>
       </c>
@@ -8813,39 +8813,39 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="126" t="s">
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="145"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="127"/>
-      <c r="M26" s="126">
+      <c r="I26" s="136"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="121"/>
+      <c r="M26" s="120">
         <v>0</v>
       </c>
-      <c r="N26" s="127"/>
-      <c r="O26" s="126" t="s">
+      <c r="N26" s="121"/>
+      <c r="O26" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="145"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="138" t="s">
+      <c r="P26" s="136"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="141"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="139"/>
       <c r="V26" s="9">
         <v>0.5</v>
       </c>
@@ -8862,39 +8862,39 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="126" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="I27" s="145"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="127"/>
-      <c r="M27" s="126">
+      <c r="I27" s="136"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="121"/>
+      <c r="M27" s="120">
         <v>0</v>
       </c>
-      <c r="N27" s="127"/>
-      <c r="O27" s="126" t="s">
+      <c r="N27" s="121"/>
+      <c r="O27" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="138" t="s">
+      <c r="P27" s="136"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="141"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="139"/>
       <c r="V27" s="20">
         <v>0</v>
       </c>
@@ -8911,39 +8911,39 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="126" t="s">
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="145"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="127"/>
-      <c r="M28" s="126">
+      <c r="I28" s="136"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="121"/>
+      <c r="M28" s="120">
         <v>0</v>
       </c>
-      <c r="N28" s="127"/>
-      <c r="O28" s="126" t="s">
+      <c r="N28" s="121"/>
+      <c r="O28" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="138" t="s">
+      <c r="P28" s="136"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="141"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="139"/>
       <c r="V28" s="20">
         <v>0</v>
       </c>
@@ -8960,39 +8960,39 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="148"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="126" t="s">
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="145"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="127"/>
-      <c r="M29" s="126">
+      <c r="I29" s="136"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="121"/>
+      <c r="M29" s="120">
         <v>0</v>
       </c>
-      <c r="N29" s="127"/>
-      <c r="O29" s="126" t="s">
+      <c r="N29" s="121"/>
+      <c r="O29" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="145"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="138" t="s">
+      <c r="P29" s="136"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="S29" s="139"/>
-      <c r="T29" s="139"/>
-      <c r="U29" s="141"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="139"/>
       <c r="V29" s="9">
         <v>0.5</v>
       </c>
@@ -9009,39 +9009,39 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="126" t="s">
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="145"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="127"/>
-      <c r="M30" s="126">
+      <c r="I30" s="136"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="121"/>
+      <c r="M30" s="120">
         <v>0</v>
       </c>
-      <c r="N30" s="127"/>
-      <c r="O30" s="126" t="s">
+      <c r="N30" s="121"/>
+      <c r="O30" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="138" t="s">
+      <c r="P30" s="136"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="S30" s="139"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="141"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="139"/>
       <c r="V30" s="20">
         <v>1</v>
       </c>
@@ -9058,39 +9058,39 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="126" t="s">
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="I31" s="145"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="127"/>
-      <c r="M31" s="126">
+      <c r="I31" s="136"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="121"/>
+      <c r="M31" s="120">
         <v>0</v>
       </c>
-      <c r="N31" s="127"/>
-      <c r="O31" s="126" t="s">
+      <c r="N31" s="121"/>
+      <c r="O31" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="138" t="s">
+      <c r="P31" s="136"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="141"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="139"/>
       <c r="V31" s="9">
         <v>1</v>
       </c>
@@ -9107,39 +9107,39 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="126" t="s">
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="145"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="127"/>
-      <c r="M32" s="126">
+      <c r="I32" s="136"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="121"/>
+      <c r="M32" s="120">
         <v>0</v>
       </c>
-      <c r="N32" s="127"/>
-      <c r="O32" s="126" t="s">
+      <c r="N32" s="121"/>
+      <c r="O32" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="138" t="s">
+      <c r="P32" s="136"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="S32" s="139"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="141"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="139"/>
       <c r="V32" s="9">
         <v>0.5</v>
       </c>
@@ -9156,39 +9156,39 @@
       </c>
     </row>
     <row r="33" spans="1:25" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="147" t="s">
+      <c r="A33" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="126" t="s">
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="145"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="127"/>
-      <c r="M33" s="126">
+      <c r="I33" s="136"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="121"/>
+      <c r="M33" s="120">
         <v>0</v>
       </c>
-      <c r="N33" s="127"/>
-      <c r="O33" s="126" t="s">
+      <c r="N33" s="121"/>
+      <c r="O33" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="138" t="s">
+      <c r="P33" s="136"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="S33" s="139"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="141"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="139"/>
       <c r="V33" s="9">
         <v>0.5</v>
       </c>
@@ -9205,39 +9205,39 @@
       </c>
     </row>
     <row r="34" spans="1:25" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="126" t="s">
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="145"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="127"/>
-      <c r="M34" s="126">
+      <c r="I34" s="136"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="121"/>
+      <c r="M34" s="120">
         <v>0</v>
       </c>
-      <c r="N34" s="127"/>
-      <c r="O34" s="126" t="s">
+      <c r="N34" s="121"/>
+      <c r="O34" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="138" t="s">
+      <c r="P34" s="136"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="137" t="s">
         <v>177</v>
       </c>
-      <c r="S34" s="139"/>
-      <c r="T34" s="139"/>
-      <c r="U34" s="141"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="139"/>
       <c r="V34" s="20">
         <v>1</v>
       </c>
@@ -9254,39 +9254,39 @@
       </c>
     </row>
     <row r="35" spans="1:25" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="148"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="126" t="s">
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="I35" s="145"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" s="127"/>
-      <c r="M35" s="126">
+      <c r="I35" s="136"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="121"/>
+      <c r="M35" s="120">
         <v>0</v>
       </c>
-      <c r="N35" s="127"/>
-      <c r="O35" s="126" t="s">
+      <c r="N35" s="121"/>
+      <c r="O35" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="138" t="s">
+      <c r="P35" s="136"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="S35" s="139"/>
-      <c r="T35" s="139"/>
-      <c r="U35" s="141"/>
+      <c r="S35" s="138"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="139"/>
       <c r="V35" s="20">
         <v>1</v>
       </c>
@@ -9306,36 +9306,36 @@
       <c r="A36" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="146"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
       <c r="G36" s="125"/>
-      <c r="H36" s="126" t="s">
+      <c r="H36" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="I36" s="145"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="127"/>
-      <c r="M36" s="126">
+      <c r="I36" s="136"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="121"/>
+      <c r="M36" s="120">
         <v>0</v>
       </c>
-      <c r="N36" s="127"/>
-      <c r="O36" s="126" t="s">
+      <c r="N36" s="121"/>
+      <c r="O36" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="145"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="138" t="s">
+      <c r="P36" s="136"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="S36" s="139"/>
-      <c r="T36" s="139"/>
-      <c r="U36" s="141"/>
+      <c r="S36" s="138"/>
+      <c r="T36" s="138"/>
+      <c r="U36" s="139"/>
       <c r="V36" s="20">
         <v>2</v>
       </c>
@@ -9355,36 +9355,36 @@
       <c r="A37" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
       <c r="G37" s="125"/>
-      <c r="H37" s="126" t="s">
+      <c r="H37" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="145"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L37" s="127"/>
-      <c r="M37" s="126">
+      <c r="I37" s="136"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="121"/>
+      <c r="M37" s="120">
         <v>0</v>
       </c>
-      <c r="N37" s="127"/>
-      <c r="O37" s="126" t="s">
+      <c r="N37" s="121"/>
+      <c r="O37" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="P37" s="145"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="138" t="s">
+      <c r="P37" s="136"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="S37" s="139"/>
-      <c r="T37" s="139"/>
-      <c r="U37" s="141"/>
+      <c r="S37" s="138"/>
+      <c r="T37" s="138"/>
+      <c r="U37" s="139"/>
       <c r="V37" s="20">
         <v>1</v>
       </c>
@@ -9404,36 +9404,36 @@
       <c r="A38" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="146"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
       <c r="G38" s="125"/>
-      <c r="H38" s="126" t="s">
+      <c r="H38" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="145"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="127"/>
-      <c r="M38" s="126">
+      <c r="I38" s="136"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="121"/>
+      <c r="M38" s="120">
         <v>0</v>
       </c>
-      <c r="N38" s="127"/>
-      <c r="O38" s="126" t="s">
+      <c r="N38" s="121"/>
+      <c r="O38" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="127"/>
-      <c r="R38" s="138" t="s">
+      <c r="P38" s="136"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="S38" s="139"/>
-      <c r="T38" s="139"/>
-      <c r="U38" s="141"/>
+      <c r="S38" s="138"/>
+      <c r="T38" s="138"/>
+      <c r="U38" s="139"/>
       <c r="V38" s="20">
         <v>4</v>
       </c>
@@ -9453,36 +9453,36 @@
       <c r="A39" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
       <c r="G39" s="125"/>
-      <c r="H39" s="126" t="s">
+      <c r="H39" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="145"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L39" s="127"/>
-      <c r="M39" s="126">
+      <c r="I39" s="136"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="121"/>
+      <c r="M39" s="120">
         <v>0</v>
       </c>
-      <c r="N39" s="127"/>
-      <c r="O39" s="126" t="s">
+      <c r="N39" s="121"/>
+      <c r="O39" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="145"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="138" t="s">
+      <c r="P39" s="136"/>
+      <c r="Q39" s="121"/>
+      <c r="R39" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="S39" s="139"/>
-      <c r="T39" s="139"/>
-      <c r="U39" s="141"/>
+      <c r="S39" s="138"/>
+      <c r="T39" s="138"/>
+      <c r="U39" s="139"/>
       <c r="V39" s="20">
         <v>2</v>
       </c>
@@ -9502,36 +9502,36 @@
       <c r="A40" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="146"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="126" t="s">
+      <c r="H40" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="145"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40" s="127"/>
-      <c r="M40" s="126">
+      <c r="I40" s="136"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="121"/>
+      <c r="M40" s="120">
         <v>0</v>
       </c>
-      <c r="N40" s="127"/>
-      <c r="O40" s="126" t="s">
+      <c r="N40" s="121"/>
+      <c r="O40" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="145"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="138" t="s">
+      <c r="P40" s="136"/>
+      <c r="Q40" s="121"/>
+      <c r="R40" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="S40" s="139"/>
-      <c r="T40" s="139"/>
-      <c r="U40" s="141"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="139"/>
       <c r="V40" s="20">
         <v>1</v>
       </c>
@@ -9551,36 +9551,36 @@
       <c r="A41" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
       <c r="G41" s="125"/>
-      <c r="H41" s="126" t="s">
+      <c r="H41" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="145"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41" s="127"/>
-      <c r="M41" s="126">
+      <c r="I41" s="136"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="121"/>
+      <c r="M41" s="120">
         <v>0</v>
       </c>
-      <c r="N41" s="127"/>
-      <c r="O41" s="126" t="s">
+      <c r="N41" s="121"/>
+      <c r="O41" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="145"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="138" t="s">
+      <c r="P41" s="136"/>
+      <c r="Q41" s="121"/>
+      <c r="R41" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="S41" s="139"/>
-      <c r="T41" s="139"/>
-      <c r="U41" s="141"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="139"/>
       <c r="V41" s="23">
         <v>1</v>
       </c>
@@ -9600,36 +9600,36 @@
       <c r="A42" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="126" t="s">
+      <c r="H42" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="145"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" s="127"/>
-      <c r="M42" s="126">
+      <c r="I42" s="136"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="121"/>
+      <c r="M42" s="120">
         <v>0</v>
       </c>
-      <c r="N42" s="127"/>
-      <c r="O42" s="126" t="s">
+      <c r="N42" s="121"/>
+      <c r="O42" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="145"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="138" t="s">
+      <c r="P42" s="136"/>
+      <c r="Q42" s="121"/>
+      <c r="R42" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="S42" s="139"/>
-      <c r="T42" s="139"/>
-      <c r="U42" s="141"/>
+      <c r="S42" s="138"/>
+      <c r="T42" s="138"/>
+      <c r="U42" s="139"/>
       <c r="V42" s="9">
         <v>2</v>
       </c>
@@ -9649,36 +9649,36 @@
       <c r="A43" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
       <c r="G43" s="125"/>
-      <c r="H43" s="126" t="s">
+      <c r="H43" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="145"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L43" s="127"/>
-      <c r="M43" s="126">
+      <c r="I43" s="136"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="121"/>
+      <c r="M43" s="120">
         <v>0</v>
       </c>
-      <c r="N43" s="127"/>
-      <c r="O43" s="126" t="s">
+      <c r="N43" s="121"/>
+      <c r="O43" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="145"/>
-      <c r="Q43" s="127"/>
-      <c r="R43" s="138" t="s">
+      <c r="P43" s="136"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="S43" s="139"/>
-      <c r="T43" s="139"/>
-      <c r="U43" s="141"/>
+      <c r="S43" s="138"/>
+      <c r="T43" s="138"/>
+      <c r="U43" s="139"/>
       <c r="V43" s="20">
         <v>1</v>
       </c>
@@ -9698,36 +9698,36 @@
       <c r="A44" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="126" t="s">
+      <c r="H44" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="I44" s="145"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" s="127"/>
-      <c r="M44" s="126">
+      <c r="I44" s="136"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="121"/>
+      <c r="M44" s="120">
         <v>0</v>
       </c>
-      <c r="N44" s="127"/>
-      <c r="O44" s="126" t="s">
+      <c r="N44" s="121"/>
+      <c r="O44" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="145"/>
-      <c r="Q44" s="127"/>
-      <c r="R44" s="138" t="s">
+      <c r="P44" s="136"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="S44" s="139"/>
-      <c r="T44" s="139"/>
-      <c r="U44" s="141"/>
+      <c r="S44" s="138"/>
+      <c r="T44" s="138"/>
+      <c r="U44" s="139"/>
       <c r="V44" s="20">
         <v>0.5</v>
       </c>
@@ -9744,39 +9744,39 @@
       </c>
     </row>
     <row r="45" spans="1:25" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="126" t="s">
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="145"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L45" s="127"/>
-      <c r="M45" s="126">
+      <c r="I45" s="136"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="121"/>
+      <c r="M45" s="120">
         <v>0</v>
       </c>
-      <c r="N45" s="127"/>
-      <c r="O45" s="126" t="s">
+      <c r="N45" s="121"/>
+      <c r="O45" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="P45" s="145"/>
-      <c r="Q45" s="127"/>
-      <c r="R45" s="138" t="s">
+      <c r="P45" s="136"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="S45" s="139"/>
-      <c r="T45" s="139"/>
-      <c r="U45" s="141"/>
+      <c r="S45" s="138"/>
+      <c r="T45" s="138"/>
+      <c r="U45" s="139"/>
       <c r="V45" s="20">
         <v>2</v>
       </c>
@@ -9793,39 +9793,39 @@
       </c>
     </row>
     <row r="46" spans="1:25" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="142" t="s">
+      <c r="A46" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="126" t="s">
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="120" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="145"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="L46" s="127"/>
-      <c r="M46" s="126">
+      <c r="I46" s="136"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="121"/>
+      <c r="M46" s="120">
         <v>0</v>
       </c>
-      <c r="N46" s="127"/>
-      <c r="O46" s="126" t="s">
+      <c r="N46" s="121"/>
+      <c r="O46" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="P46" s="145"/>
-      <c r="Q46" s="127"/>
-      <c r="R46" s="138" t="s">
+      <c r="P46" s="136"/>
+      <c r="Q46" s="121"/>
+      <c r="R46" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="S46" s="139"/>
-      <c r="T46" s="139"/>
-      <c r="U46" s="140"/>
+      <c r="S46" s="138"/>
+      <c r="T46" s="138"/>
+      <c r="U46" s="156"/>
       <c r="V46" s="23">
         <v>1.5</v>
       </c>
@@ -9842,29 +9842,29 @@
       </c>
     </row>
     <row r="47" spans="1:25" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="135" t="s">
+      <c r="A47" s="153" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="135"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
-      <c r="N47" s="135"/>
-      <c r="O47" s="135"/>
-      <c r="P47" s="135"/>
-      <c r="Q47" s="135"/>
-      <c r="R47" s="135"/>
-      <c r="S47" s="135"/>
-      <c r="T47" s="135"/>
-      <c r="U47" s="136"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
+      <c r="N47" s="153"/>
+      <c r="O47" s="153"/>
+      <c r="P47" s="153"/>
+      <c r="Q47" s="153"/>
+      <c r="R47" s="153"/>
+      <c r="S47" s="153"/>
+      <c r="T47" s="153"/>
+      <c r="U47" s="154"/>
       <c r="V47" s="37">
         <f>SUM(V3:V46)</f>
         <v>42</v>
@@ -9883,19 +9883,19 @@
       </c>
     </row>
     <row r="48" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="137"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="123"/>
-      <c r="M48" s="123"/>
+      <c r="A48" s="155"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -9934,210 +9934,64 @@
     <row r="117" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="A47:U47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:Q38"/>
     <mergeCell ref="R36:U36"/>
     <mergeCell ref="A37:G37"/>
     <mergeCell ref="H37:J37"/>
@@ -10155,64 +10009,210 @@
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="R40:U40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R39:U39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="R41:U41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="A47:U47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="R45:U45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -10223,7 +10223,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10242,18 +10242,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="158" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="D1" s="103" t="s">
+      <c r="B1" s="159"/>
+      <c r="D1" s="158" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="H1" s="103" t="s">
+      <c r="E1" s="159"/>
+      <c r="H1" s="158" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="104"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
@@ -10377,8 +10377,8 @@
         <v>188</v>
       </c>
       <c r="I7" s="41">
-        <f>27/27</f>
-        <v>1</v>
+        <f>27/38</f>
+        <v>0.71052631578947367</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="I9" s="12">
         <f>I4*I7</f>
-        <v>381.68</v>
+        <v>271.19368421052633</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="I10" s="39">
         <f>I9/I4</f>
-        <v>1</v>
+        <v>0.71052631578947367</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10470,25 +10470,25 @@
       </c>
       <c r="I11" s="39">
         <f>I9/I8</f>
-        <v>1.2380952380952381</v>
+        <v>0.87969924812030087</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14"/>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
       <c r="J14" s="49" t="s">
         <v>196</v>
       </c>
@@ -10659,17 +10659,17 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
       <c r="J21" s="64">
         <f>SUM(B19:J19)</f>
         <v>21384.03</v>
@@ -10693,7 +10693,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10713,8 +10713,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="157" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:4" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="103" t="s">
         <v>268</v>
       </c>
       <c r="B2" s="8">
@@ -10727,7 +10727,7 @@
         <v>308.27999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="157" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -10747,7 +10747,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="104" t="s">
         <v>270</v>
       </c>
       <c r="B6" s="8">
@@ -10757,7 +10757,7 @@
         <v>225.61</v>
       </c>
       <c r="D6" s="8">
-        <v>381.68</v>
+        <v>271.19</v>
       </c>
     </row>
   </sheetData>
